--- a/results/FrequencyTables/27068471_EnvT3.xlsx
+++ b/results/FrequencyTables/27068471_EnvT3.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.62</v>
+        <v>0.195367464011257</v>
       </c>
       <c r="C2">
-        <v>0.18</v>
+        <v>0.0298372839773424</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.911534437348919</v>
       </c>
       <c r="E2">
-        <v>0.07</v>
+        <v>0.0457841757765992</v>
       </c>
       <c r="F2">
-        <v>0.34</v>
+        <v>0.860338420463975</v>
       </c>
       <c r="G2">
-        <v>0.09</v>
+        <v>0.048165385864271</v>
       </c>
       <c r="H2">
-        <v>0.22</v>
+        <v>0.035429519789299</v>
       </c>
       <c r="I2">
-        <v>0.88</v>
+        <v>0.142764368438143</v>
       </c>
       <c r="J2">
-        <v>0.83</v>
+        <v>0.139300790128802</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.0423205974672584</v>
       </c>
       <c r="L2">
-        <v>0.88</v>
+        <v>0.946422773027384</v>
       </c>
       <c r="M2">
-        <v>0.32</v>
+        <v>0.868311866363604</v>
       </c>
       <c r="N2">
-        <v>0.03</v>
+        <v>0.0221163906627701</v>
       </c>
       <c r="O2">
-        <v>0.73</v>
+        <v>0.107731716996789</v>
       </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>0.0115813399718584</v>
       </c>
       <c r="Q2">
-        <v>0.05</v>
+        <v>0.018616733412707</v>
       </c>
       <c r="R2">
-        <v>0.66</v>
+        <v>0.130389291770394</v>
       </c>
       <c r="S2">
-        <v>0.06</v>
+        <v>0.0222607064256593</v>
       </c>
       <c r="T2">
-        <v>0.99</v>
+        <v>0.980986398239348</v>
       </c>
       <c r="U2">
-        <v>0.19</v>
+        <v>0.0538297795576722</v>
       </c>
       <c r="V2">
-        <v>0.3</v>
+        <v>0.0521701482844464</v>
       </c>
       <c r="W2">
-        <v>0.79</v>
+        <v>0.223003932604539</v>
       </c>
       <c r="X2">
-        <v>0.35</v>
+        <v>0.106721506656565</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.13</v>
+        <v>0.0142511815853087</v>
       </c>
       <c r="C3">
-        <v>0.47</v>
+        <v>0.896922466356388</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.00321102572428474</v>
       </c>
       <c r="E3">
-        <v>0.11</v>
+        <v>0.777934119854241</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00721578814446008</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.133419922791067</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0700292239419851</v>
       </c>
       <c r="I3">
-        <v>0.01</v>
+        <v>0.00728794602590468</v>
       </c>
       <c r="J3">
-        <v>0.07</v>
+        <v>0.0208536277374896</v>
       </c>
       <c r="K3">
-        <v>0.69</v>
+        <v>0.136594869574629</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0.0405166504311433</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0104268138687448</v>
       </c>
       <c r="N3">
-        <v>0.01</v>
+        <v>0.0419237291193131</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000865894577335209</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00176786809539272</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.0162355233250352</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000757657755168308</v>
       </c>
       <c r="S3">
-        <v>0.01</v>
+        <v>0.0295847313922863</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00220081538406032</v>
       </c>
       <c r="U3">
-        <v>0.03</v>
+        <v>0.0131327344229173</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>0.0953927192697622</v>
       </c>
       <c r="W3">
-        <v>0.01</v>
+        <v>0.00375220983511924</v>
       </c>
       <c r="X3">
-        <v>0.05</v>
+        <v>0.020781469856045</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09</v>
+        <v>0.745426994263448</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.009488761409965</v>
       </c>
       <c r="D4">
-        <v>0.12</v>
+        <v>0.0168488653173143</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0.0198073384565429</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>0.0284302052891727</v>
       </c>
       <c r="G4">
-        <v>0.9</v>
+        <v>0.797561063607172</v>
       </c>
       <c r="H4">
-        <v>0.08</v>
+        <v>0.0252552585056103</v>
       </c>
       <c r="I4">
-        <v>0.03</v>
+        <v>0.029548652451564</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>0.00389652559800844</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0.00465418335317675</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>0.00660244615218097</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00274199949489483</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00122668398455821</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000216473644333802</v>
       </c>
       <c r="P4">
-        <v>0.89</v>
+        <v>0.946350615145939</v>
       </c>
       <c r="Q4">
-        <v>0.17</v>
+        <v>0.0158025760363676</v>
       </c>
       <c r="R4">
-        <v>0.33</v>
+        <v>0.865822419453765</v>
       </c>
       <c r="S4">
-        <v>0.92</v>
+        <v>0.946278457264495</v>
       </c>
       <c r="T4">
-        <v>0.01</v>
+        <v>0.0131688133636396</v>
       </c>
       <c r="U4">
-        <v>0.62</v>
+        <v>0.924775408594004</v>
       </c>
       <c r="V4">
-        <v>0.09</v>
+        <v>0.828769347331962</v>
       </c>
       <c r="W4">
-        <v>0.08</v>
+        <v>0.75863188656781</v>
       </c>
       <c r="X4">
-        <v>0.57</v>
+        <v>0.864884366994985</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.16</v>
+        <v>0.044918281199264</v>
       </c>
       <c r="C5">
-        <v>0.33</v>
+        <v>0.0637154093155825</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.0682974347873146</v>
       </c>
       <c r="E5">
-        <v>0.62</v>
+        <v>0.156402208031172</v>
       </c>
       <c r="F5">
-        <v>0.61</v>
+        <v>0.104015586102392</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.0208536277374896</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.869285997763106</v>
       </c>
       <c r="I5">
-        <v>0.08</v>
+        <v>0.820362954143666</v>
       </c>
       <c r="J5">
-        <v>0.08</v>
+        <v>0.8359490565357</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.816430349604936</v>
       </c>
       <c r="L5">
-        <v>0.01</v>
+        <v>0.00638597250784717</v>
       </c>
       <c r="M5">
-        <v>0.68</v>
+        <v>0.118483241332034</v>
       </c>
       <c r="N5">
-        <v>0.96</v>
+        <v>0.934588880470469</v>
       </c>
       <c r="O5">
-        <v>0.27</v>
+        <v>0.891185914781542</v>
       </c>
       <c r="P5">
-        <v>0.1</v>
+        <v>0.0403001767868095</v>
       </c>
       <c r="Q5">
-        <v>0.78</v>
+        <v>0.94934516722589</v>
       </c>
       <c r="R5">
-        <v>0.01</v>
+        <v>0.00295847313922863</v>
       </c>
       <c r="S5">
-        <v>0.01</v>
+        <v>0.00184002597683732</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00357181513150774</v>
       </c>
       <c r="U5">
-        <v>0.16</v>
+        <v>0.00793736695890609</v>
       </c>
       <c r="V5">
-        <v>0.11</v>
+        <v>0.0236677851138291</v>
       </c>
       <c r="W5">
-        <v>0.12</v>
+        <v>0.0143954973481979</v>
       </c>
       <c r="X5">
-        <v>0.03</v>
+        <v>0.00407692030161994</v>
       </c>
     </row>
   </sheetData>
